--- a/Assets/Editor/Excels/DialogueDetailsData.xlsx
+++ b/Assets/Editor/Excels/DialogueDetailsData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>你好呀~我是Mike</t>
+  </si>
+  <si>
+    <t>Girl01-5</t>
+  </si>
+  <si>
+    <t>Mira</t>
+  </si>
+  <si>
+    <t>你好呀~来看看有啥需要的吗</t>
   </si>
 </sst>
 </file>
@@ -93,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -108,14 +117,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,24 +229,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,98 +254,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,36 +463,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -500,6 +498,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,17 +535,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,23 +1071,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1161,7 +1171,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -1187,7 +1197,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -1208,6 +1218,32 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>-1</v>
       </c>
     </row>

--- a/Assets/Editor/Excels/DialogueDetailsData.xlsx
+++ b/Assets/Editor/Excels/DialogueDetailsData.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="DialogueDetails" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -73,12 +73,18 @@
     <t>Man_001_happy</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>Andy</t>
   </si>
   <si>
     <t>你好我是镇长Andy</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>Boy01-5</t>
   </si>
   <si>
@@ -95,6 +101,15 @@
   </si>
   <si>
     <t>你好呀~来看看有啥需要的吗</t>
+  </si>
+  <si>
+    <t>Girl02-2</t>
+  </si>
+  <si>
+    <t>LiSa</t>
+  </si>
+  <si>
+    <t>你好呀~我是LiSa</t>
   </si>
 </sst>
 </file>
@@ -112,14 +127,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,7 +140,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,35 +147,30 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,7 +178,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,7 +185,6 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,14 +192,12 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,14 +205,12 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,7 +218,6 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,14 +225,12 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,7 +238,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,7 +245,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,7 +252,6 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -565,162 +560,312 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="54">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="22" applyFill="1" borderId="8" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1071,7 +1216,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -1081,169 +1226,195 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1" style="50"/>
+    <col min="2" max="2" width="14.875" customWidth="1" style="50"/>
+    <col min="3" max="3" width="12.625" customWidth="1" style="50"/>
+    <col min="4" max="4" width="10.375" customWidth="1" style="50"/>
+    <col min="5" max="5" width="26.5" customWidth="1" style="50"/>
+    <col min="6" max="6" width="11.5" customWidth="1" style="50"/>
+    <col min="7" max="7" width="19.125" customWidth="1" style="50"/>
+    <col min="8" max="8" width="13.75" customWidth="1" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="51" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="50">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="b">
+      <c r="C4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="50">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="G5" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="50">
         <v>2</v>
       </c>
+      <c r="B6" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="53">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    <row r="7">
+      <c r="A7" s="50">
+        <v>3</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="H7" s="50">
         <v>-1</v>
       </c>
     </row>
